--- a/5_JavaScript/2_Game/Fruits/static/details.xlsx
+++ b/5_JavaScript/2_Game/Fruits/static/details.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYED\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\JS_HTML_CSS\5_JavaScript\2_Game\Fruits\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8EECEB-10B2-4819-BF05-2D485E232E75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$E$5:$E$84</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="1">
   <si>
     <r>
       <rPr>
@@ -58,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -401,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -455,7 +466,7 @@
     </row>
     <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D10" si="0">IFERROR(CHAR(B9),"")</f>
+        <f t="shared" ref="D9:D72" si="0">IFERROR(CHAR(B9),"")</f>
         <v/>
       </c>
       <c r="F9" s="3" t="str">
@@ -472,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>102</v>
       </c>
@@ -480,23 +491,34 @@
         <v>6</v>
       </c>
       <c r="D11" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C11&amp;"' class='gallery_im gallery_item--"&amp;C11&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-6' class='gallery_im gallery_item--6'&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D12" t="str">
-        <f>IFERROR(CHAR(B11),"")</f>
-        <v>f</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D11&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-f.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D13" t="str">
-        <f>IFERROR(CHAR(B12),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>103</v>
       </c>
@@ -504,23 +526,34 @@
         <v>7</v>
       </c>
       <c r="D14" t="str">
-        <f>IFERROR(CHAR(B13),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>g</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C14&amp;"' class='gallery_im gallery_item--"&amp;C14&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-7' class='gallery_im gallery_item--7'&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D15" t="str">
-        <f>IFERROR(CHAR(B14),"")</f>
-        <v>g</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D14&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-g.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D16" t="str">
-        <f>IFERROR(CHAR(B15),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>104</v>
       </c>
@@ -528,23 +561,34 @@
         <v>8</v>
       </c>
       <c r="D17" t="str">
-        <f>IFERROR(CHAR(B16),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C17&amp;"' class='gallery_im gallery_item--"&amp;C17&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-8' class='gallery_im gallery_item--8'&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D18" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D17&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-h.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D19" t="str">
-        <f>IFERROR(CHAR(B17),"")</f>
-        <v>h</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>105</v>
       </c>
@@ -552,432 +596,650 @@
         <v>9</v>
       </c>
       <c r="D20" t="str">
-        <f>IFERROR(CHAR(B18),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C20&amp;"' class='gallery_im gallery_item--"&amp;C20&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-9' class='gallery_im gallery_item--9'&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D21" t="str">
-        <f>IFERROR(CHAR(B19),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D20&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-i.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D22" t="str">
-        <f>IFERROR(CHAR(B20),"")</f>
-        <v>i</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>106</v>
+      </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="str">
-        <f>IFERROR(CHAR(B21),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>106</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>j</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C23&amp;"' class='gallery_im gallery_item--"&amp;C23&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-10' class='gallery_im gallery_item--10'&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D24" t="str">
-        <f>IFERROR(CHAR(B22),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D23&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-j.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D25" t="str">
-        <f>IFERROR(CHAR(B23),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
       <c r="D26" t="str">
-        <f>IFERROR(CHAR(B24),"")</f>
-        <v>j</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>107</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>k</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C26&amp;"' class='gallery_im gallery_item--"&amp;C26&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-11' class='gallery_im gallery_item--11'&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D27" t="str">
-        <f>IFERROR(CHAR(B25),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D26&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-k.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D28" t="str">
-        <f>IFERROR(CHAR(B26),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
       <c r="D29" t="str">
-        <f>IFERROR(CHAR(B27),"")</f>
-        <v>k</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>108</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>l</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C29&amp;"' class='gallery_im gallery_item--"&amp;C29&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-12' class='gallery_im gallery_item--12'&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D30" t="str">
-        <f>IFERROR(CHAR(B28),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D29&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-l.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D31" t="str">
-        <f>IFERROR(CHAR(B29),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
       <c r="D32" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>109</v>
-      </c>
-      <c r="C33">
-        <v>13</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>m</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C32&amp;"' class='gallery_im gallery_item--"&amp;C32&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-13' class='gallery_im gallery_item--13'&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D33" t="str">
-        <f>IFERROR(CHAR(B30),"")</f>
-        <v>l</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D32&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-m.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D34" t="str">
-        <f>IFERROR(CHAR(B31),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
       <c r="D35" t="str">
-        <f>IFERROR(CHAR(B32),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>110</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>n</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C35&amp;"' class='gallery_im gallery_item--"&amp;C35&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-14' class='gallery_im gallery_item--14'&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D36" t="str">
-        <f>IFERROR(CHAR(B33),"")</f>
-        <v>m</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D35&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-n.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D37" t="str">
-        <f>IFERROR(CHAR(B34),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>111</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
       <c r="D38" t="str">
-        <f>IFERROR(CHAR(B35),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>111</v>
-      </c>
-      <c r="C39">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>o</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C38&amp;"' class='gallery_im gallery_item--"&amp;C38&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-15' class='gallery_im gallery_item--15'&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D39" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D38&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-o.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D40" t="str">
-        <f>IFERROR(CHAR(B36),"")</f>
-        <v>n</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>112</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
       <c r="D41" t="str">
-        <f>IFERROR(CHAR(B37),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>112</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>p</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C41&amp;"' class='gallery_im gallery_item--"&amp;C41&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-16' class='gallery_im gallery_item--16'&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D42" t="str">
-        <f>IFERROR(CHAR(B38),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D41&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-p.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D43" t="str">
-        <f>IFERROR(CHAR(B39),"")</f>
-        <v>o</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>113</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
       <c r="D44" t="str">
-        <f>IFERROR(CHAR(B40),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>113</v>
-      </c>
-      <c r="C45">
-        <v>17</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>q</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C44&amp;"' class='gallery_im gallery_item--"&amp;C44&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-17' class='gallery_im gallery_item--17'&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D45" t="str">
-        <f>IFERROR(CHAR(B41),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D44&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-q.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D46" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>114</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
       <c r="D47" t="str">
-        <f>IFERROR(CHAR(B42),"")</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <v>114</v>
-      </c>
-      <c r="C48">
-        <v>18</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>r</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C47&amp;"' class='gallery_im gallery_item--"&amp;C47&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-18' class='gallery_im gallery_item--18'&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D48" t="str">
-        <f>IFERROR(CHAR(B43),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D47&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-r.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D49" t="str">
-        <f>IFERROR(CHAR(B44),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
       <c r="D50" t="str">
-        <f>IFERROR(CHAR(B45),"")</f>
-        <v>q</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>115</v>
-      </c>
-      <c r="C51">
-        <v>19</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C50&amp;"' class='gallery_im gallery_item--"&amp;C50&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-19' class='gallery_im gallery_item--19'&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D51" t="str">
-        <f>IFERROR(CHAR(B46),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D50&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-s.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D52" t="str">
-        <f>IFERROR(CHAR(B47),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
       <c r="D53" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <v>116</v>
-      </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C53&amp;"' class='gallery_im gallery_item--"&amp;C53&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-20' class='gallery_im gallery_item--20'&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D54" t="str">
-        <f>IFERROR(CHAR(B48),"")</f>
-        <v>r</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D53&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-t.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D55" t="str">
-        <f>IFERROR(CHAR(B49),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>117</v>
+      </c>
+      <c r="C56">
+        <v>21</v>
+      </c>
       <c r="D56" t="str">
-        <f>IFERROR(CHAR(B50),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>117</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>u</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C56&amp;"' class='gallery_im gallery_item--"&amp;C56&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-21' class='gallery_im gallery_item--21'&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D57" t="str">
-        <f>IFERROR(CHAR(B51),"")</f>
-        <v>s</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D56&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-u.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D58" t="str">
-        <f>IFERROR(CHAR(B52),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59">
         <v>118</v>
       </c>
-      <c r="C60">
-        <v>21</v>
-      </c>
+      <c r="C59">
+        <v>22</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>v</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C59&amp;"' class='gallery_im gallery_item--"&amp;C59&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-22' class='gallery_im gallery_item--22'&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D60" t="str">
-        <f>IFERROR(CHAR(B53),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D59&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-v.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D61" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>119</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
       <c r="D62" t="str">
-        <f>IFERROR(CHAR(B54),"")</f>
-        <v>t</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <v>119</v>
-      </c>
-      <c r="C63">
-        <v>22</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>w</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C62&amp;"' class='gallery_im gallery_item--"&amp;C62&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-23' class='gallery_im gallery_item--23'&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D63" t="str">
-        <f>IFERROR(CHAR(B55),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D62&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-w.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D64" t="str">
-        <f>IFERROR(CHAR(B56),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>120</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
       <c r="D65" t="str">
-        <f>IFERROR(CHAR(B57),"")</f>
-        <v>u</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>120</v>
-      </c>
-      <c r="C66">
-        <v>23</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C65&amp;"' class='gallery_im gallery_item--"&amp;C65&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-24' class='gallery_im gallery_item--24'&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D66" t="str">
-        <f>IFERROR(CHAR(B58),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D65&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-x.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D67" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>121</v>
+      </c>
+      <c r="C68">
+        <v>25</v>
+      </c>
       <c r="D68" t="str">
-        <f>IFERROR(CHAR(#REF!),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69">
-        <v>24</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>y</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C68&amp;"' class='gallery_im gallery_item--"&amp;C68&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-25' class='gallery_im gallery_item--25'&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D69" t="str">
-        <f>IFERROR(CHAR(B60),"")</f>
-        <v>v</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F69" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D68&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-y.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D70" t="str">
-        <f>IFERROR(CHAR(B61),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>122</v>
+      </c>
+      <c r="C71">
+        <v>26</v>
+      </c>
       <c r="D71" t="str">
-        <f>IFERROR(CHAR(B62),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C72">
-        <v>25</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>z</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f>"&lt;figure id='fruit-"&amp;C71&amp;"' class='gallery_im gallery_item--"&amp;C71&amp;"'&gt;"</f>
+        <v>&lt;figure id='fruit-26' class='gallery_im gallery_item--26'&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D72" t="str">
-        <f>IFERROR(CHAR(B63),"")</f>
-        <v>w</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f>"&lt;img src='static/img/letter-"&amp;D71&amp;".png' class='gallery__img' alt='Image 1'&gt;"</f>
+        <v>&lt;img src='static/img/letter-z.png' class='gallery__img' alt='Image 1'&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="D73" t="str">
-        <f>IFERROR(CHAR(B64),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D73:D74" si="1">IFERROR(CHAR(B73),"")</f>
+        <v/>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D74" t="str">
-        <f t="shared" ref="D74:D75" si="1">IFERROR(CHAR(B65),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>26</v>
-      </c>
-      <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>x</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB8B99A-4D92-44A7-A514-3B482972CDF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>